--- a/scan.xlsx
+++ b/scan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiena\Desktop\文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ScannerReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40214FB6-22B4-4DC9-9D5B-05AB42B0ADB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687457C5-EE4A-488B-B028-5261BB2449BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10356" yWindow="1308" windowWidth="23040" windowHeight="14604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14016" yWindow="1392" windowWidth="12936" windowHeight="13692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="78">
   <si>
     <t>编入日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,252 +43,274 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>主要行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS3209</t>
+  </si>
+  <si>
+    <t>AS35908</t>
+  </si>
+  <si>
+    <t>对网站进行首页扫描</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意大利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对WP进行压缩文件扫描（Backup.zip等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对反代Onedrive的网站进行首页扫描</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS24940</t>
+  </si>
+  <si>
+    <t>编入时24H次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67.229.31.164</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116.202.166.126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>138.201.36.136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185.56.219.68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>138.246.253.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSH扫描爆破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73.63.131.113</t>
+  </si>
+  <si>
+    <t>AS7922</t>
+  </si>
+  <si>
+    <t>54.69.219.69</t>
+  </si>
+  <si>
+    <t>205.185.126.93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112.199.118.195</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菲律宾</t>
+  </si>
+  <si>
+    <t>AS9658</t>
+  </si>
+  <si>
+    <t>AS16509</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>211.144.221.226</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS23853</t>
+  </si>
+  <si>
+    <t>中国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201.174.122.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>AS32098</t>
+  </si>
+  <si>
+    <t>49.235.48.191</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS45090</t>
+  </si>
+  <si>
+    <t>159.89.194.103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS14061</t>
+  </si>
+  <si>
+    <t>AS14061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新加坡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85.29.136.213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈萨克斯坦</t>
+  </si>
+  <si>
+    <t>AS21299</t>
+  </si>
+  <si>
+    <t>148.66.143.140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS26496</t>
+  </si>
+  <si>
+    <t>51.210.107.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS16276</t>
+  </si>
+  <si>
+    <t>法国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45.145.185.56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS213035</t>
+  </si>
+  <si>
+    <t>日本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS53667</t>
+  </si>
+  <si>
+    <t>190.64.137.172</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS6057</t>
+  </si>
+  <si>
+    <t>51.68.190.223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>186.121.204.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS26210</t>
+  </si>
+  <si>
+    <t>51.68.198.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>167.99.204.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>181.134.5.173</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS13489</t>
+  </si>
+  <si>
+    <t>120.92.92.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS59019</t>
+  </si>
+  <si>
+    <t>87.188.125.211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS3320</t>
+  </si>
+  <si>
+    <t>乌拉圭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻利维亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥伦比亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>24.134.104.49</t>
-  </si>
-  <si>
-    <t>主要行为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS3209</t>
-  </si>
-  <si>
-    <t>AS35908</t>
-  </si>
-  <si>
-    <t>对网站进行首页扫描</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>德国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>意大利</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AS202675</t>
-  </si>
-  <si>
-    <t>对WP进行压缩文件扫描（Backup.zip等）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对反代Onedrive的网站进行首页扫描</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AS24940</t>
-  </si>
-  <si>
-    <t>编入时24H次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AS12816</t>
-  </si>
-  <si>
-    <t>67.229.31.164</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>116.202.166.126</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>138.201.36.136</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>185.56.219.68</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>138.246.253.24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSH扫描爆破</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>73.63.131.113</t>
-  </si>
-  <si>
-    <t>AS7922</t>
-  </si>
-  <si>
-    <t>54.69.219.69</t>
-  </si>
-  <si>
-    <t>205.185.126.93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>112.199.118.195</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
-    <t>AS9658</t>
-  </si>
-  <si>
-    <t>AS16509</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>211.144.221.226</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS23853</t>
-  </si>
-  <si>
-    <t>中国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>201.174.122.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>AS32098</t>
-  </si>
-  <si>
-    <t>49.235.48.191</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS45090</t>
-  </si>
-  <si>
-    <t>159.89.194.103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS14061</t>
-  </si>
-  <si>
-    <t>AS14061</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新加坡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85.29.136.213</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>AS21299</t>
-  </si>
-  <si>
-    <t>148.66.143.140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS26496</t>
-  </si>
-  <si>
-    <t>51.210.107.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS16276</t>
-  </si>
-  <si>
-    <t>法国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45.145.185.56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS213035</t>
-  </si>
-  <si>
-    <t>日本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS53667</t>
-  </si>
-  <si>
-    <t>190.64.137.172</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS6057</t>
-  </si>
-  <si>
-    <t>51.68.190.223</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>186.121.204.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS26210</t>
-  </si>
-  <si>
-    <t>51.68.198.75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>167.99.204.24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>181.134.5.173</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS13489</t>
-  </si>
-  <si>
-    <t>120.92.92.40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS59019</t>
-  </si>
-  <si>
-    <t>87.188.125.211</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS3320</t>
-  </si>
-  <si>
-    <t>乌拉圭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玻利维亚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哥伦比亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185.156.1.155</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯</t>
+  </si>
+  <si>
+    <t>PMA与WP扫描</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS202594</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -643,27 +665,27 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="B2">
         <v>20201212</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>97</v>
@@ -671,19 +693,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>20201212</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
       </c>
       <c r="F3">
         <v>536</v>
@@ -691,19 +713,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>20201212</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
       </c>
       <c r="F4">
         <v>75</v>
@@ -711,19 +733,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>20201212</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>33</v>
@@ -731,19 +753,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>20201212</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>24</v>
@@ -751,19 +773,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>20201212</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7">
         <v>20</v>
@@ -771,342 +793,362 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>20201212</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>20201212</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>20201212</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>20201212</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>20201212</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>20201212</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>20201212</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
         <v>40</v>
       </c>
-      <c r="B14">
-        <v>20201212</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>20201212</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>20201212</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17">
+        <v>20201212</v>
+      </c>
+      <c r="C17" t="s">
         <v>47</v>
       </c>
-      <c r="B16">
-        <v>20201212</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D17" t="s">
         <v>48</v>
       </c>
-      <c r="D16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>49</v>
       </c>
-      <c r="B17">
-        <v>20201212</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18">
+        <v>20201212</v>
+      </c>
+      <c r="C18" t="s">
         <v>50</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>51</v>
       </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>20201212</v>
+      </c>
+      <c r="C19" t="s">
         <v>52</v>
       </c>
-      <c r="B18">
-        <v>20201212</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>53</v>
       </c>
-      <c r="D18" t="s">
+      <c r="B20">
+        <v>20201212</v>
+      </c>
+      <c r="C20" t="s">
         <v>54</v>
       </c>
-      <c r="E18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19">
-        <v>20201212</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>55</v>
       </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B21">
+        <v>20201212</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>56</v>
       </c>
-      <c r="B20">
-        <v>20201212</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B22">
+        <v>20201212</v>
+      </c>
+      <c r="C22" t="s">
         <v>57</v>
       </c>
-      <c r="D20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>58</v>
       </c>
-      <c r="B21">
-        <v>20201212</v>
-      </c>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B23">
+        <v>20201212</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
         <v>59</v>
       </c>
-      <c r="B22">
-        <v>20201212</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>60</v>
       </c>
-      <c r="D22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B24">
+        <v>20201212</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>61</v>
       </c>
-      <c r="B23">
-        <v>20201212</v>
-      </c>
-      <c r="C23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="B25">
+        <v>20201212</v>
+      </c>
+      <c r="C25" t="s">
         <v>62</v>
       </c>
-      <c r="E23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>63</v>
       </c>
-      <c r="B24">
-        <v>20201212</v>
-      </c>
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B26">
+        <v>20201212</v>
+      </c>
+      <c r="C26" t="s">
         <v>64</v>
       </c>
-      <c r="B25">
-        <v>20201212</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>65</v>
       </c>
-      <c r="D25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B27">
+        <v>20201212</v>
+      </c>
+      <c r="C27" t="s">
         <v>66</v>
       </c>
-      <c r="B26">
-        <v>20201212</v>
-      </c>
-      <c r="C26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27">
-        <v>20201212</v>
-      </c>
-      <c r="C27" t="s">
-        <v>69</v>
-      </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28">
+        <v>20201224</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/scan.xlsx
+++ b/scan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ScannerReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687457C5-EE4A-488B-B028-5261BB2449BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214077B0-9F2C-4A17-81FA-6B7BD25AF98E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14016" yWindow="1392" windowWidth="12936" windowHeight="13692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24880" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="110">
   <si>
     <t>编入日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,6 +311,129 @@
   </si>
   <si>
     <t>AS202594</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描/support/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无意义搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68.79.21.206</t>
+  </si>
+  <si>
+    <t>HEAD压缩包</t>
+  </si>
+  <si>
+    <t>注入攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45.155.205.27</t>
+  </si>
+  <si>
+    <t>PHP攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录扫描</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高频</t>
+  </si>
+  <si>
+    <t>高频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45.227.255.166</t>
+  </si>
+  <si>
+    <t>奇怪的UA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.202.112.202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.85.216.242</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106.52.58.81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112.66.102.97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112.66.99.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114.246.34.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>117.221.179.184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>119.118.3.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120.85.111.87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>122.138.88.58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123.191.133.216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123.245.25.41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>167.172.48.190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>171.37.181.69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>221.13.12.173</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>221.13.12.218</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>221.213.75.130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>223.166.74.116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27.224.136.74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36.106.167.137</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,22 +759,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="36.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="36.4140625" customWidth="1"/>
+    <col min="6" max="6" width="16.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -671,75 +794,69 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>20201212</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>20201212</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>20201212</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="B4">
         <v>20201212</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>20201212</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -748,220 +865,223 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>20201212</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>20201212</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>20201212</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>20201212</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10">
+        <v>20201212</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>20201212</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12">
+        <v>20201212</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13">
+        <v>20201212</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>20201212</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>20201212</v>
-      </c>
-      <c r="C7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B15">
+        <v>20201212</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>20201212</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17">
+        <v>20201212</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <v>20201212</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9">
-        <v>20201212</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10">
-        <v>20201212</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11">
-        <v>20201212</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12">
-        <v>20201212</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13">
-        <v>20201212</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14">
-        <v>20201212</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15">
-        <v>20201212</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16">
-        <v>20201212</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17">
-        <v>20201212</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
       <c r="E17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -978,41 +1098,41 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>20201212</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B20">
         <v>20201212</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -1029,92 +1149,95 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <v>20201212</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>20201212</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="B24">
         <v>20201212</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="B25">
         <v>20201212</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B26">
         <v>20201212</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -1131,7 +1254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -1151,7 +1274,272 @@
         <v>31</v>
       </c>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29">
+        <v>20210428</v>
+      </c>
+      <c r="E29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30">
+        <v>20210428</v>
+      </c>
+      <c r="E30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31">
+        <v>20210428</v>
+      </c>
+      <c r="E31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32">
+        <v>20210428</v>
+      </c>
+      <c r="E32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33">
+        <v>20210428</v>
+      </c>
+      <c r="E33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34">
+        <v>20210428</v>
+      </c>
+      <c r="E34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35">
+        <v>20210428</v>
+      </c>
+      <c r="E35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36">
+        <v>20210428</v>
+      </c>
+      <c r="E36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37">
+        <v>20210428</v>
+      </c>
+      <c r="E37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38">
+        <v>20210428</v>
+      </c>
+      <c r="E38" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39">
+        <v>20210428</v>
+      </c>
+      <c r="E39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40">
+        <v>20210428</v>
+      </c>
+      <c r="E40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41">
+        <v>20210428</v>
+      </c>
+      <c r="E41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42">
+        <v>20210428</v>
+      </c>
+      <c r="E42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43">
+        <v>20210428</v>
+      </c>
+      <c r="E43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44">
+        <v>20210428</v>
+      </c>
+      <c r="E44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45">
+        <v>20210428</v>
+      </c>
+      <c r="E45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46">
+        <v>20210428</v>
+      </c>
+      <c r="E46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47">
+        <v>20210428</v>
+      </c>
+      <c r="E47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48">
+        <v>20210428</v>
+      </c>
+      <c r="E48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49">
+        <v>20210428</v>
+      </c>
+      <c r="E49" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50">
+        <v>20210428</v>
+      </c>
+      <c r="E50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51">
+        <v>20210428</v>
+      </c>
+      <c r="E51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F51">
+    <sortCondition ref="B2:B51"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/scan.xlsx
+++ b/scan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ScannerReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214077B0-9F2C-4A17-81FA-6B7BD25AF98E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609710AF-3EA3-460A-A537-9B5A4BD81765}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24880" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -322,118 +322,120 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>HEAD压缩包</t>
+  </si>
+  <si>
+    <t>注入攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHP攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录扫描</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高频</t>
+  </si>
+  <si>
+    <t>高频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45.227.255.166</t>
+  </si>
+  <si>
+    <t>奇怪的UA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.202.112.202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.85.216.242</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106.52.58.81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112.66.102.97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112.66.99.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114.246.34.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>117.221.179.184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>119.118.3.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120.85.111.87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>122.138.88.58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123.191.133.216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123.245.25.41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>167.172.48.190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>171.37.181.69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>221.13.12.173</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>221.13.12.218</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>221.213.75.130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>223.166.74.116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27.224.136.74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36.106.167.137</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45.155.205.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>68.79.21.206</t>
-  </si>
-  <si>
-    <t>HEAD压缩包</t>
-  </si>
-  <si>
-    <t>注入攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45.155.205.27</t>
-  </si>
-  <si>
-    <t>PHP攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目录扫描</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高频</t>
-  </si>
-  <si>
-    <t>高频</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45.227.255.166</t>
-  </si>
-  <si>
-    <t>奇怪的UA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.202.112.202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.85.216.242</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>106.52.58.81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>112.66.102.97</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>112.66.99.23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>114.246.34.23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>117.221.179.184</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>119.118.3.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120.85.111.87</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>122.138.88.58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123.191.133.216</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123.245.25.41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>167.172.48.190</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>171.37.181.69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>221.13.12.173</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>221.13.12.218</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>221.213.75.130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>223.166.74.116</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27.224.136.74</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36.106.167.137</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -762,7 +764,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:B51"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1276,7 +1278,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B29">
         <v>20210428</v>
@@ -1287,7 +1289,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B30">
         <v>20210428</v>
@@ -1298,7 +1300,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B31">
         <v>20210428</v>
@@ -1309,7 +1311,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B32">
         <v>20210428</v>
@@ -1320,7 +1322,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B33">
         <v>20210428</v>
@@ -1331,29 +1333,29 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B34">
         <v>20210428</v>
       </c>
       <c r="E34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B35">
         <v>20210428</v>
       </c>
       <c r="E35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B36">
         <v>20210428</v>
@@ -1364,7 +1366,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B37">
         <v>20210428</v>
@@ -1375,21 +1377,21 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B38">
         <v>20210428</v>
       </c>
       <c r="E38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B39">
         <v>20210428</v>
@@ -1400,7 +1402,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B40">
         <v>20210428</v>
@@ -1411,18 +1413,18 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B41">
         <v>20210428</v>
       </c>
       <c r="E41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B42">
         <v>20210428</v>
@@ -1433,7 +1435,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B43">
         <v>20210428</v>
@@ -1444,7 +1446,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B44">
         <v>20210428</v>
@@ -1455,7 +1457,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B45">
         <v>20210428</v>
@@ -1466,7 +1468,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B46">
         <v>20210428</v>
@@ -1477,7 +1479,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B47">
         <v>20210428</v>
@@ -1488,7 +1490,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B48">
         <v>20210428</v>
@@ -1499,41 +1501,41 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="B49">
         <v>20210428</v>
       </c>
       <c r="E49" t="s">
+        <v>82</v>
+      </c>
+      <c r="F49" t="s">
         <v>84</v>
-      </c>
-      <c r="F49" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B50">
         <v>20210428</v>
       </c>
       <c r="E50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51">
+        <v>20210428</v>
+      </c>
+      <c r="E51" t="s">
         <v>80</v>
       </c>
-      <c r="B51">
-        <v>20210428</v>
-      </c>
-      <c r="E51" t="s">
-        <v>81</v>
-      </c>
       <c r="F51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
